--- a/testData/TC_SolidFireConfig.xlsx
+++ b/testData/TC_SolidFireConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilr2\eclipse-workspace\UCPQ_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CFB4A-1FB6-4794-9C19-56C994024BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE6EEE-63AD-4216-B599-7DA67C2551EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
     <col min="1" max="1" width="26.07421875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3828125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.3046875" customWidth="1"/>
-    <col min="4" max="4" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.07421875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>

--- a/testData/TC_SolidFireConfig.xlsx
+++ b/testData/TC_SolidFireConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilr2\eclipse-workspace\UCPQ_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE6EEE-63AD-4216-B599-7DA67C2551EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E198C-DFB3-4CF3-8655-44F3797CE2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Username</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Sub Product</t>
+  </si>
+  <si>
+    <t>Hyperscaler</t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -595,17 +598,18 @@
     <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.61328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.3828125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="17.3828125" customWidth="1"/>
-    <col min="17" max="17" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.53515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="17.3828125" customWidth="1"/>
+    <col min="18" max="18" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.53515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -626,13 +630,14 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="8" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -653,17 +658,18 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="11"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,40 +701,43 @@
         <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -765,29 +774,30 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>1000</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>10</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{147F5B5B-A653-4F7A-9371-88FE8BC0D8D7}"/>

--- a/testData/TC_SolidFireConfig.xlsx
+++ b/testData/TC_SolidFireConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilr2\eclipse-workspace\UCPQ_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E198C-DFB3-4CF3-8655-44F3797CE2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448CD98-C7B5-4C95-836E-3C5051D911DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testData/TC_SolidFireConfig.xlsx
+++ b/testData/TC_SolidFireConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilr2\eclipse-workspace\UCPQ_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448CD98-C7B5-4C95-836E-3C5051D911DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6491C7CC-D045-4FED-ABEF-C0D6B3A2CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Username</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Hyperscaler</t>
+  </si>
+  <si>
+    <t>Expected Label</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +208,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,43 +233,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -285,20 +263,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:S1"/>
@@ -607,137 +581,143 @@
     <col min="20" max="20" width="32.53515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.61328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="8"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="11"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="W3" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -790,14 +770,17 @@
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="W4" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="T2:W2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{147F5B5B-A653-4F7A-9371-88FE8BC0D8D7}"/>
